--- a/biology/Médecine/Grotte_aux_Loups/Grotte_aux_Loups.xlsx
+++ b/biology/Médecine/Grotte_aux_Loups/Grotte_aux_Loups.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maladière de Monthoux ou Gueule du Loup de la Maladière[1] ou encore grotte aux Loups est une cavité karstique, située sur la commune de Perrignier en Haute-Savoie, en France. Cette cavité accueillait au Moyen Âge une maladrerie ou léproserie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maladière de Monthoux ou Gueule du Loup de la Maladière ou encore grotte aux Loups est une cavité karstique, située sur la commune de Perrignier en Haute-Savoie, en France. Cette cavité accueillait au Moyen Âge une maladrerie ou léproserie.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La grotte est située dans colline dite de la Maladière, dans la partie nord de la commune de Perrignier[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La grotte est située dans colline dite de la Maladière, dans la partie nord de la commune de Perrignier.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La grotte accueille une maladrerie ou léproserie[2]. La maladière de Monthoux est une paroisse, elle possède une chapelle[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La grotte accueille une maladrerie ou léproserie. La maladière de Monthoux est une paroisse, elle possède une chapelle.
 </t>
         </is>
       </c>
